--- a/Data/EUDA/Cannabis_detaille/deja_traite_entrants.xlsx
+++ b/Data/EUDA/Cannabis_detaille/deja_traite_entrants.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,52 +441,47 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Year of Treatment</t>
+          <t>All substances.deja.deja.deja</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>All substances</t>
+          <t>Opioids.deja.deja.deja</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Opioids</t>
+          <t>Cocaine.deja.deja.deja</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Cocaine</t>
+          <t>Stimulants.deja.deja.deja</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Stimulants</t>
+          <t>Hypnotics and Sedatives.deja.deja.deja</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Hypnotics and Sedatives</t>
+          <t>Hallucinogens.deja.deja.deja</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Hallucinogens</t>
+          <t>Volatile Inhalants.deja.deja.deja</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Volatile Inhalants</t>
+          <t>Cannabis.deja.deja.deja</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Cannabis</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Other substances</t>
+          <t>Other substances.deja.deja.deja</t>
         </is>
       </c>
     </row>
@@ -497,33 +492,30 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2022</v>
+        <v>2756</v>
       </c>
       <c r="C2" t="n">
-        <v>2756</v>
+        <v>1427</v>
       </c>
       <c r="D2" t="n">
-        <v>1427</v>
+        <v>350</v>
       </c>
       <c r="E2" t="n">
-        <v>350</v>
+        <v>161</v>
       </c>
       <c r="F2" t="n">
-        <v>161</v>
+        <v>91</v>
       </c>
       <c r="G2" t="n">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>458</v>
       </c>
       <c r="J2" t="n">
-        <v>458</v>
-      </c>
-      <c r="K2" t="n">
         <v>16</v>
       </c>
     </row>
@@ -534,33 +526,30 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2022</v>
+        <v>7376</v>
       </c>
       <c r="C3" t="n">
-        <v>7376</v>
+        <v>1543</v>
       </c>
       <c r="D3" t="n">
-        <v>1543</v>
+        <v>2111</v>
       </c>
       <c r="E3" t="n">
-        <v>2111</v>
+        <v>857</v>
       </c>
       <c r="F3" t="n">
-        <v>857</v>
+        <v>478</v>
       </c>
       <c r="G3" t="n">
-        <v>478</v>
+        <v>188</v>
       </c>
       <c r="H3" t="n">
-        <v>188</v>
+        <v>13</v>
       </c>
       <c r="I3" t="n">
-        <v>13</v>
+        <v>1524</v>
       </c>
       <c r="J3" t="n">
-        <v>1524</v>
-      </c>
-      <c r="K3" t="n">
         <v>28</v>
       </c>
     </row>
@@ -571,33 +560,30 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2022</v>
+        <v>1164</v>
       </c>
       <c r="C4" t="n">
-        <v>1164</v>
+        <v>517</v>
       </c>
       <c r="D4" t="n">
-        <v>517</v>
+        <v>40</v>
       </c>
       <c r="E4" t="n">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="F4" t="n">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="G4" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="J4" t="n">
-        <v>42</v>
-      </c>
-      <c r="K4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -608,33 +594,30 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2022</v>
+        <v>1674</v>
       </c>
       <c r="C5" t="n">
-        <v>1674</v>
+        <v>1283</v>
       </c>
       <c r="D5" t="n">
-        <v>1283</v>
+        <v>45</v>
       </c>
       <c r="E5" t="n">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F5" t="n">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="G5" t="n">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>190</v>
       </c>
       <c r="J5" t="n">
-        <v>190</v>
-      </c>
-      <c r="K5" t="n">
         <v>32</v>
       </c>
     </row>
@@ -645,29 +628,26 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2022</v>
+        <v>308</v>
       </c>
       <c r="C6" t="n">
-        <v>308</v>
+        <v>81</v>
       </c>
       <c r="D6" t="n">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="E6" t="n">
-        <v>96</v>
-      </c>
-      <c r="F6" t="n">
         <v>64</v>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="n">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="n">
         <v>1</v>
       </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="n">
         <v>66</v>
       </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -676,33 +656,30 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2020</v>
+        <v>3336</v>
       </c>
       <c r="C7" t="n">
-        <v>3336</v>
+        <v>1229</v>
       </c>
       <c r="D7" t="n">
-        <v>1229</v>
+        <v>32</v>
       </c>
       <c r="E7" t="n">
-        <v>32</v>
+        <v>1444</v>
       </c>
       <c r="F7" t="n">
-        <v>1444</v>
+        <v>136</v>
       </c>
       <c r="G7" t="n">
-        <v>136</v>
+        <v>8</v>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>469</v>
       </c>
       <c r="J7" t="n">
-        <v>469</v>
-      </c>
-      <c r="K7" t="n">
         <v>14</v>
       </c>
     </row>
@@ -713,33 +690,30 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2022</v>
+        <v>4408</v>
       </c>
       <c r="C8" t="n">
-        <v>4408</v>
+        <v>446</v>
       </c>
       <c r="D8" t="n">
-        <v>446</v>
+        <v>705</v>
       </c>
       <c r="E8" t="n">
-        <v>705</v>
+        <v>211</v>
       </c>
       <c r="F8" t="n">
-        <v>211</v>
+        <v>79</v>
       </c>
       <c r="G8" t="n">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="H8" t="n">
         <v>6</v>
       </c>
       <c r="I8" t="n">
-        <v>6</v>
+        <v>1473</v>
       </c>
       <c r="J8" t="n">
-        <v>1473</v>
-      </c>
-      <c r="K8" t="n">
         <v>65</v>
       </c>
     </row>
@@ -750,29 +724,26 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2022</v>
+        <v>290</v>
       </c>
       <c r="C9" t="n">
-        <v>290</v>
+        <v>217</v>
       </c>
       <c r="D9" t="n">
-        <v>217</v>
+        <v>9</v>
       </c>
       <c r="E9" t="n">
+        <v>40</v>
+      </c>
+      <c r="F9" t="n">
         <v>9</v>
       </c>
-      <c r="F9" t="n">
-        <v>40</v>
-      </c>
-      <c r="G9" t="n">
-        <v>9</v>
-      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
+      <c r="I9" t="n">
         <v>15</v>
       </c>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -781,33 +752,30 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2021</v>
+        <v>263</v>
       </c>
       <c r="C10" t="n">
-        <v>263</v>
+        <v>101</v>
       </c>
       <c r="D10" t="n">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="F10" t="n">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="G10" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="J10" t="n">
-        <v>26</v>
-      </c>
-      <c r="K10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -818,33 +786,30 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2021</v>
+        <v>10628</v>
       </c>
       <c r="C11" t="n">
-        <v>10628</v>
+        <v>4155</v>
       </c>
       <c r="D11" t="n">
-        <v>4155</v>
+        <v>1273</v>
       </c>
       <c r="E11" t="n">
-        <v>1273</v>
+        <v>198</v>
       </c>
       <c r="F11" t="n">
-        <v>198</v>
+        <v>286</v>
       </c>
       <c r="G11" t="n">
-        <v>286</v>
+        <v>59</v>
       </c>
       <c r="H11" t="n">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="I11" t="n">
-        <v>7</v>
+        <v>3647</v>
       </c>
       <c r="J11" t="n">
-        <v>3647</v>
-      </c>
-      <c r="K11" t="n">
         <v>87</v>
       </c>
     </row>
@@ -855,33 +820,30 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2022</v>
+        <v>16018</v>
       </c>
       <c r="C12" t="n">
-        <v>16018</v>
+        <v>3869</v>
       </c>
       <c r="D12" t="n">
-        <v>3869</v>
+        <v>1511</v>
       </c>
       <c r="E12" t="n">
-        <v>1511</v>
+        <v>3230</v>
       </c>
       <c r="F12" t="n">
-        <v>3230</v>
+        <v>413</v>
       </c>
       <c r="G12" t="n">
-        <v>413</v>
+        <v>31</v>
       </c>
       <c r="H12" t="n">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="I12" t="n">
-        <v>6</v>
+        <v>6921</v>
       </c>
       <c r="J12" t="n">
-        <v>6921</v>
-      </c>
-      <c r="K12" t="n">
         <v>37</v>
       </c>
     </row>
@@ -892,33 +854,30 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2022</v>
+        <v>2013</v>
       </c>
       <c r="C13" t="n">
-        <v>2013</v>
+        <v>1247</v>
       </c>
       <c r="D13" t="n">
-        <v>1247</v>
+        <v>351</v>
       </c>
       <c r="E13" t="n">
-        <v>351</v>
+        <v>36</v>
       </c>
       <c r="F13" t="n">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="G13" t="n">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="J13" t="n">
-        <v>299</v>
-      </c>
-      <c r="K13" t="n">
         <v>18</v>
       </c>
     </row>
@@ -929,33 +888,30 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2022</v>
+        <v>954</v>
       </c>
       <c r="C14" t="n">
-        <v>954</v>
+        <v>58</v>
       </c>
       <c r="D14" t="n">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="E14" t="n">
-        <v>37</v>
+        <v>178</v>
       </c>
       <c r="F14" t="n">
-        <v>178</v>
+        <v>51</v>
       </c>
       <c r="G14" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="H14" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>488</v>
       </c>
       <c r="J14" t="n">
-        <v>488</v>
-      </c>
-      <c r="K14" t="n">
         <v>109</v>
       </c>
     </row>
@@ -966,33 +922,30 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2022</v>
+        <v>6340</v>
       </c>
       <c r="C15" t="n">
-        <v>6340</v>
+        <v>2970</v>
       </c>
       <c r="D15" t="n">
-        <v>2970</v>
+        <v>1770</v>
       </c>
       <c r="E15" t="n">
-        <v>1770</v>
+        <v>40</v>
       </c>
       <c r="F15" t="n">
-        <v>40</v>
+        <v>859</v>
       </c>
       <c r="G15" t="n">
-        <v>859</v>
+        <v>6</v>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>650</v>
       </c>
       <c r="J15" t="n">
-        <v>650</v>
-      </c>
-      <c r="K15" t="n">
         <v>42</v>
       </c>
     </row>
@@ -1003,33 +956,30 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2022</v>
+        <v>21067</v>
       </c>
       <c r="C16" t="n">
-        <v>21067</v>
+        <v>9290</v>
       </c>
       <c r="D16" t="n">
-        <v>9290</v>
+        <v>8077</v>
       </c>
       <c r="E16" t="n">
-        <v>8077</v>
+        <v>83</v>
       </c>
       <c r="F16" t="n">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="G16" t="n">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="H16" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>3322</v>
       </c>
       <c r="J16" t="n">
-        <v>3322</v>
-      </c>
-      <c r="K16" t="n">
         <v>137</v>
       </c>
     </row>
@@ -1040,33 +990,30 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2022</v>
+        <v>361</v>
       </c>
       <c r="C17" t="n">
-        <v>361</v>
+        <v>192</v>
       </c>
       <c r="D17" t="n">
-        <v>192</v>
+        <v>5</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="F17" t="n">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="G17" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="J17" t="n">
-        <v>76</v>
-      </c>
-      <c r="K17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1077,29 +1024,26 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2022</v>
+        <v>343</v>
       </c>
       <c r="C18" t="n">
-        <v>343</v>
+        <v>305</v>
       </c>
       <c r="D18" t="n">
-        <v>305</v>
+        <v>7</v>
       </c>
       <c r="E18" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F18" t="n">
-        <v>5</v>
-      </c>
-      <c r="G18" t="n">
         <v>11</v>
       </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>11</v>
+      </c>
       <c r="J18" t="n">
-        <v>11</v>
-      </c>
-      <c r="K18" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1110,25 +1054,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2022</v>
+        <v>163</v>
       </c>
       <c r="C19" t="n">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c r="D19" t="n">
-        <v>65</v>
-      </c>
-      <c r="E19" t="n">
         <v>47</v>
       </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
+      <c r="I19" t="n">
         <v>51</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1137,33 +1078,30 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2022</v>
+        <v>1458</v>
       </c>
       <c r="C20" t="n">
-        <v>1458</v>
+        <v>798</v>
       </c>
       <c r="D20" t="n">
-        <v>798</v>
+        <v>496</v>
       </c>
       <c r="E20" t="n">
-        <v>496</v>
+        <v>3</v>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
+        <v>5</v>
+      </c>
+      <c r="H20" t="n">
         <v>1</v>
       </c>
-      <c r="H20" t="n">
-        <v>5</v>
-      </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>151</v>
       </c>
       <c r="J20" t="n">
-        <v>151</v>
-      </c>
-      <c r="K20" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1174,33 +1112,30 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2015</v>
+        <v>4458</v>
       </c>
       <c r="C21" t="n">
-        <v>4458</v>
+        <v>860</v>
       </c>
       <c r="D21" t="n">
-        <v>860</v>
+        <v>1318</v>
       </c>
       <c r="E21" t="n">
-        <v>1318</v>
+        <v>350</v>
       </c>
       <c r="F21" t="n">
-        <v>350</v>
+        <v>302</v>
       </c>
       <c r="G21" t="n">
-        <v>302</v>
+        <v>3</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>1577</v>
       </c>
       <c r="J21" t="n">
-        <v>1577</v>
-      </c>
-      <c r="K21" t="n">
         <v>47</v>
       </c>
     </row>
@@ -1211,33 +1146,30 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2022</v>
+        <v>3626</v>
       </c>
       <c r="C22" t="n">
-        <v>3626</v>
+        <v>817</v>
       </c>
       <c r="D22" t="n">
-        <v>817</v>
+        <v>130</v>
       </c>
       <c r="E22" t="n">
-        <v>130</v>
+        <v>588</v>
       </c>
       <c r="F22" t="n">
-        <v>588</v>
+        <v>340</v>
       </c>
       <c r="G22" t="n">
-        <v>340</v>
+        <v>10</v>
       </c>
       <c r="H22" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>737</v>
       </c>
       <c r="J22" t="n">
-        <v>737</v>
-      </c>
-      <c r="K22" t="n">
         <v>1002</v>
       </c>
     </row>
@@ -1248,33 +1180,30 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2022</v>
+        <v>2096</v>
       </c>
       <c r="C23" t="n">
-        <v>2096</v>
+        <v>511</v>
       </c>
       <c r="D23" t="n">
-        <v>511</v>
+        <v>70</v>
       </c>
       <c r="E23" t="n">
-        <v>70</v>
+        <v>862</v>
       </c>
       <c r="F23" t="n">
-        <v>862</v>
+        <v>93</v>
       </c>
       <c r="G23" t="n">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I23" t="n">
-        <v>5</v>
+        <v>490</v>
       </c>
       <c r="J23" t="n">
-        <v>490</v>
-      </c>
-      <c r="K23" t="n">
         <v>65</v>
       </c>
     </row>
@@ -1285,31 +1214,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2022</v>
+        <v>1681</v>
       </c>
       <c r="C24" t="n">
-        <v>1681</v>
+        <v>845</v>
       </c>
       <c r="D24" t="n">
-        <v>845</v>
+        <v>353</v>
       </c>
       <c r="E24" t="n">
-        <v>353</v>
+        <v>4</v>
       </c>
       <c r="F24" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G24" t="n">
-        <v>8</v>
-      </c>
-      <c r="H24" t="n">
         <v>1</v>
       </c>
-      <c r="I24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>342</v>
+      </c>
       <c r="J24" t="n">
-        <v>342</v>
-      </c>
-      <c r="K24" t="n">
         <v>24</v>
       </c>
     </row>
@@ -1320,33 +1246,30 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2022</v>
+        <v>1244</v>
       </c>
       <c r="C25" t="n">
-        <v>1244</v>
+        <v>571</v>
       </c>
       <c r="D25" t="n">
-        <v>571</v>
+        <v>23</v>
       </c>
       <c r="E25" t="n">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="F25" t="n">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="G25" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H25" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I25" t="n">
-        <v>9</v>
+        <v>370</v>
       </c>
       <c r="J25" t="n">
-        <v>370</v>
-      </c>
-      <c r="K25" t="n">
         <v>183</v>
       </c>
     </row>
@@ -1357,33 +1280,30 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2022</v>
+        <v>1291</v>
       </c>
       <c r="C26" t="n">
-        <v>1291</v>
+        <v>218</v>
       </c>
       <c r="D26" t="n">
-        <v>218</v>
+        <v>9</v>
       </c>
       <c r="E26" t="n">
-        <v>9</v>
+        <v>550</v>
       </c>
       <c r="F26" t="n">
-        <v>550</v>
+        <v>84</v>
       </c>
       <c r="G26" t="n">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="I26" t="n">
-        <v>19</v>
-      </c>
-      <c r="J26" t="n">
         <v>186</v>
       </c>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1392,33 +1312,30 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2022</v>
+        <v>98</v>
       </c>
       <c r="C27" t="n">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="D27" t="n">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="E27" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
-        <v>2</v>
-      </c>
-      <c r="K27" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1429,33 +1346,30 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2021</v>
+        <v>18359</v>
       </c>
       <c r="C28" t="n">
-        <v>18359</v>
+        <v>5428</v>
       </c>
       <c r="D28" t="n">
-        <v>5428</v>
+        <v>9004</v>
       </c>
       <c r="E28" t="n">
-        <v>9004</v>
+        <v>459</v>
       </c>
       <c r="F28" t="n">
-        <v>459</v>
+        <v>252</v>
       </c>
       <c r="G28" t="n">
-        <v>252</v>
+        <v>39</v>
       </c>
       <c r="H28" t="n">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="I28" t="n">
-        <v>4</v>
+        <v>3160</v>
       </c>
       <c r="J28" t="n">
-        <v>3160</v>
-      </c>
-      <c r="K28" t="n">
         <v>13</v>
       </c>
     </row>
@@ -1474,7 +1388,6 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1483,33 +1396,30 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2022</v>
+        <v>4543</v>
       </c>
       <c r="C30" t="n">
-        <v>4543</v>
+        <v>2729</v>
       </c>
       <c r="D30" t="n">
-        <v>2729</v>
+        <v>121</v>
       </c>
       <c r="E30" t="n">
-        <v>121</v>
+        <v>1251</v>
       </c>
       <c r="F30" t="n">
-        <v>1251</v>
+        <v>17</v>
       </c>
       <c r="G30" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H30" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="I30" t="n">
-        <v>31</v>
+        <v>277</v>
       </c>
       <c r="J30" t="n">
-        <v>277</v>
-      </c>
-      <c r="K30" t="n">
         <v>109</v>
       </c>
     </row>
@@ -1524,7 +1434,6 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1541,7 +1450,6 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
